--- a/documentation/Requirements Gathering Worksheet.xlsx
+++ b/documentation/Requirements Gathering Worksheet.xlsx
@@ -1,28 +1,30 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="Calc"/>
-  <workbookPr backupFile="false" showObjects="all" date1904="false"/>
-  <workbookProtection/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="18431"/>
+  <workbookPr defaultThemeVersion="166925"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\murr\Dropbox\Senior Lecturer\CSE 4316-4317\document guidelines\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="600" firstSheet="0" activeTab="0"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8190"/>
   </bookViews>
   <sheets>
-    <sheet name="Senior Design Requirements WS" sheetId="1" state="visible" r:id="rId2"/>
-    <sheet name="Instructions" sheetId="2" state="visible" r:id="rId3"/>
+    <sheet name="Senior Design Requirements WS" sheetId="1" r:id="rId1"/>
+    <sheet name="Instructions" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm.Print_Area" vbProcedure="false">'Senior Design Requirements WS'!$A:$H</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm.Print_Titles" vbProcedure="false">'Senior Design Requirements WS'!$1:$2</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm.Print_Area" vbProcedure="false">'Senior Design Requirements WS'!$A:$H</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm.Print_Titles" vbProcedure="false">'Senior Design Requirements WS'!$1:$2</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">'Senior Design Requirements WS'!$A:$H</definedName>
+    <definedName name="_xlnm.Print_Titles" localSheetId="0">'Senior Design Requirements WS'!$1:$2</definedName>
   </definedNames>
-  <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
+  <calcPr calcId="0" iterateDelta="1E-4"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="43">
   <si>
     <t>Senior Design Requirements Gathering Worksheet</t>
   </si>
@@ -52,9 +54,6 @@
   </si>
   <si>
     <t>Individual or organization name</t>
-  </si>
-  <si>
-    <t>Concise, single sentence requirement title, usually in the form "The system shall…", "The product will…", etc. Requirements involving specific user types should be worded as a user story: “As a &lt;type of user&gt;, I want to &lt;feature or use case&gt; so that &lt;necessity&gt;”.</t>
   </si>
   <si>
     <t>Additional information describing the specifics of this requirement.</t>
@@ -134,16 +133,34 @@
   </si>
   <si>
     <t>List any limitations of any type for this requirement.</t>
+  </si>
+  <si>
+    <t>Concise, single sentence requirement title, usually in the form "The system shall…", "The product will…", etc. Requirements involving specific user types should be worded such that the user is clearly stated.</t>
+  </si>
+  <si>
+    <t>The system shall include a secure login portal for database administrators.</t>
+  </si>
+  <si>
+    <t>Jane Doe</t>
+  </si>
+  <si>
+    <t>Maintenance &amp; Support</t>
+  </si>
+  <si>
+    <t>SSLv3</t>
+  </si>
+  <si>
+    <t>A maintenance page will be accessible via web browser by database administrators with proper login credentials. All communication between the client and server will be encrypted using SSL.</t>
+  </si>
+  <si>
+    <t>SSL certificates will be provided to the development team by the customer's certificate authority.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="GENERAL"/>
-  </numFmts>
-  <fonts count="9">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -151,53 +168,38 @@
       <charset val="1"/>
     </font>
     <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <b val="true"/>
+      <b/>
       <sz val="18"/>
       <name val="Arial"/>
       <family val="2"/>
       <charset val="1"/>
     </font>
     <font>
-      <b val="true"/>
-      <i val="true"/>
+      <b/>
+      <i/>
       <sz val="18"/>
       <name val="Arial"/>
       <family val="2"/>
       <charset val="1"/>
     </font>
     <font>
-      <b val="true"/>
+      <b/>
       <sz val="12"/>
       <name val="Arial"/>
       <family val="2"/>
       <charset val="1"/>
     </font>
     <font>
-      <b val="true"/>
-      <i val="true"/>
+      <b/>
+      <i/>
       <sz val="14"/>
       <name val="Arial"/>
       <family val="2"/>
       <charset val="1"/>
     </font>
     <font>
-      <b val="true"/>
-      <i val="true"/>
+      <b/>
+      <i/>
       <sz val="12"/>
       <name val="Arial"/>
       <family val="2"/>
@@ -225,115 +227,85 @@
     </fill>
   </fills>
   <borders count="3">
-    <border diagonalUp="false" diagonalDown="false">
+    <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
       <diagonal/>
     </border>
-    <border diagonalUp="false" diagonalDown="false">
+    <border>
       <left/>
       <right/>
       <top/>
-      <bottom style="thin"/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
       <diagonal/>
     </border>
-    <border diagonalUp="false" diagonalDown="false">
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="20">
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+  <cellStyleXfs count="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="13">
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="2" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="3" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
-  <cellStyles count="6">
-    <cellStyle name="Normal" xfId="0" builtinId="0" customBuiltin="false"/>
-    <cellStyle name="Comma" xfId="15" builtinId="3" customBuiltin="false"/>
-    <cellStyle name="Comma [0]" xfId="16" builtinId="6" customBuiltin="false"/>
-    <cellStyle name="Currency" xfId="17" builtinId="4" customBuiltin="false"/>
-    <cellStyle name="Currency [0]" xfId="18" builtinId="7" customBuiltin="false"/>
-    <cellStyle name="Percent" xfId="19" builtinId="5" customBuiltin="false"/>
+  <cellStyles count="1">
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <indexedColors>
       <rgbColor rgb="FF000000"/>
@@ -392,133 +364,469 @@
       <rgbColor rgb="FF993366"/>
       <rgbColor rgb="FF333399"/>
       <rgbColor rgb="FF333333"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
     </indexedColors>
   </colors>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+  <a:themeElements>
+    <a:clrScheme name="Office">
+      <a:dk1>
+        <a:sysClr val="windowText" lastClr="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="44546A"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="E7E6E6"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="4472C4"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="ED7D31"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="A5A5A5"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="FFC000"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="5B9BD5"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="70AD47"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="0563C1"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="954F72"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Office">
+      <a:majorFont>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック Light"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线 Light"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme name="Office">
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="110000"/>
+                <a:satMod val="105000"/>
+                <a:tint val="67000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="103000"/>
+                <a:tint val="73000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="109000"/>
+                <a:tint val="81000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:satMod val="103000"/>
+                <a:lumMod val="102000"/>
+                <a:tint val="94000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:satMod val="110000"/>
+                <a:lumMod val="100000"/>
+                <a:shade val="100000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="99000"/>
+                <a:satMod val="120000"/>
+                <a:shade val="78000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="63000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:tint val="95000"/>
+            <a:satMod val="170000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="93000"/>
+                <a:satMod val="150000"/>
+                <a:shade val="98000"/>
+                <a:lumMod val="102000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:tint val="98000"/>
+                <a:satMod val="130000"/>
+                <a:shade val="90000"/>
+                <a:lumMod val="103000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="63000"/>
+                <a:satMod val="120000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
+  <a:extLst>
+    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+    </a:ext>
+  </a:extLst>
+</a:theme>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="true"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:H6"/>
+  <dimension ref="A1:AMK5"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C3" activeCellId="0" sqref="C3"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75"/>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="8"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="2" width="17.7091836734694"/>
-    <col collapsed="false" hidden="false" max="4" min="3" style="1" width="49.4234693877551"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="2" width="18.7091836734694"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="2" width="16.2908163265306"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="1" width="36.7091836734694"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="1" width="60.8520408163265"/>
-    <col collapsed="false" hidden="false" max="1025" min="9" style="1" width="36.7091836734694"/>
+    <col min="1" max="1" width="8" style="4"/>
+    <col min="2" max="2" width="17.7109375" style="4"/>
+    <col min="3" max="4" width="49.42578125" style="3"/>
+    <col min="5" max="5" width="18.7109375" style="4"/>
+    <col min="6" max="6" width="16.28515625" style="4"/>
+    <col min="7" max="7" width="36.7109375" style="3"/>
+    <col min="8" max="8" width="60.85546875" style="3"/>
+    <col min="9" max="1025" width="36.7109375" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" s="4" customFormat="true" ht="23.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A1" s="3" t="s">
+    <row r="1" spans="1:8" s="5" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3"/>
-      <c r="C1" s="3"/>
-      <c r="D1" s="3"/>
-      <c r="E1" s="3"/>
-      <c r="F1" s="3"/>
-      <c r="G1" s="3"/>
-      <c r="H1" s="3"/>
-    </row>
-    <row r="2" s="6" customFormat="true" ht="47.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A2" s="5" t="s">
+      <c r="B1" s="2"/>
+      <c r="C1" s="2"/>
+      <c r="D1" s="2"/>
+      <c r="E1" s="2"/>
+      <c r="F1" s="2"/>
+      <c r="G1" s="2"/>
+      <c r="H1" s="2"/>
+    </row>
+    <row r="2" spans="1:8" s="7" customFormat="1" ht="47.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="5" t="s">
+      <c r="B2" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="5" t="s">
+      <c r="C2" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="5" t="s">
+      <c r="D2" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="E2" s="5" t="s">
+      <c r="E2" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="F2" s="5" t="s">
+      <c r="F2" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="G2" s="5" t="s">
+      <c r="G2" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="H2" s="5" t="s">
+      <c r="H2" s="6" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="61.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="2" t="n">
+    <row r="3" spans="1:8" ht="76.5" x14ac:dyDescent="0.2">
+      <c r="A3" s="4">
         <v>1</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="B3" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="C3" s="1" t="s">
+      <c r="C3" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="D3" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="D3" s="1" t="s">
+      <c r="E3" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="E3" s="2" t="s">
+      <c r="F3" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="F3" s="2" t="s">
+      <c r="G3" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="G3" s="1" t="s">
+      <c r="H3" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="H3" s="1" t="s">
+    </row>
+    <row r="4" spans="1:8" ht="51" x14ac:dyDescent="0.2">
+      <c r="A4" s="4">
+        <v>2</v>
+      </c>
+      <c r="B4" s="4" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="4" customFormat="false" ht="51" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" s="2" t="s">
+      <c r="C4" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="C4" s="1" t="s">
+      <c r="D4" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="D4" s="1" t="s">
+      <c r="E4" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="E4" s="2" t="s">
+      <c r="F4" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="F4" s="2" t="s">
+      <c r="G4" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="G4" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="H4" s="1" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+      <c r="H4" s="3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" ht="51" x14ac:dyDescent="0.2">
+      <c r="A5" s="4">
+        <v>3</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="E5" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="F5" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="G5" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="H5" s="3" t="s">
+        <v>42</v>
+      </c>
+    </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="A1:H1"/>
   </mergeCells>
-  <printOptions headings="false" gridLines="true" gridLinesSet="true" horizontalCentered="true" verticalCentered="false"/>
+  <printOptions horizontalCentered="1" gridLines="1"/>
   <pageMargins left="0.5" right="0.5" top="0.75" bottom="0.75" header="0.5" footer="0.5"/>
-  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="0" pageOrder="downThenOver" orientation="landscape" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
+  <pageSetup paperSize="0" scale="0" firstPageNumber="0" fitToHeight="0" orientation="portrait" usePrinterDefaults="0" horizontalDpi="0" verticalDpi="0" copies="0"/>
+  <headerFooter>
     <oddHeader>&amp;R&amp;P of &amp;N</oddHeader>
     <oddFooter>&amp;LRequirements Worksheet&amp;C&amp;F&amp;R&amp;D @ &amp;T</oddFooter>
   </headerFooter>
@@ -526,111 +834,103 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
-  <dimension ref="A1:B10"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:AMK10"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B9" activeCellId="0" sqref="B9"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75"/>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="7" width="18.1428571428571"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="7" width="104.709183673469"/>
-    <col collapsed="false" hidden="false" max="1025" min="3" style="7" width="9.14285714285714"/>
+    <col min="1" max="1" width="18.140625" style="8"/>
+    <col min="2" max="2" width="104.7109375" style="8"/>
+    <col min="3" max="1025" width="9.140625" style="8"/>
   </cols>
   <sheetData>
-    <row r="1" s="9" customFormat="true" ht="57" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A1" s="8" t="s">
+    <row r="1" spans="1:2" s="9" customFormat="1" ht="57" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B1" s="1"/>
+    </row>
+    <row r="2" spans="1:2" s="10" customFormat="1" ht="18.75" x14ac:dyDescent="0.2">
+      <c r="A2" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="B1" s="8"/>
-    </row>
-    <row r="2" s="10" customFormat="true" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="10" t="s">
+      <c r="B2" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="B2" s="10" t="s">
+    </row>
+    <row r="3" spans="1:2" ht="51" x14ac:dyDescent="0.2">
+      <c r="A3" s="11" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="3" customFormat="false" ht="51" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="11" t="s">
+      <c r="B3" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="B3" s="7" t="s">
+    </row>
+    <row r="4" spans="1:2" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A4" s="12" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="4" customFormat="false" ht="25.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="12" t="s">
+      <c r="B4" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="B4" s="7" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="5" customFormat="false" ht="25.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="5" spans="1:2" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A5" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="B5" s="7" t="s">
+      <c r="B5" s="8" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" ht="30" x14ac:dyDescent="0.2">
+      <c r="A6" s="12" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="6" customFormat="false" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="12" t="s">
+      <c r="B6" s="8" t="s">
         <v>30</v>
       </c>
-      <c r="B6" s="7" t="s">
+    </row>
+    <row r="7" spans="1:2" ht="38.25" x14ac:dyDescent="0.2">
+      <c r="A7" s="12" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="7" customFormat="false" ht="38.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="12" t="s">
+      <c r="B7" s="8" t="s">
         <v>32</v>
       </c>
-      <c r="B7" s="7" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="8" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A8" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="B8" s="7" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="9" customFormat="false" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B8" s="8" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" ht="30" x14ac:dyDescent="0.2">
       <c r="A9" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="B9" s="7" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B9" s="8" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A10" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="B10" s="7" t="s">
-        <v>36</v>
+      <c r="B10" s="8" t="s">
+        <v>35</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="A1:B1"/>
   </mergeCells>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader/>
-    <oddFooter/>
-  </headerFooter>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555496" footer="0.51180555555555496"/>
+  <pageSetup paperSize="0" scale="0" firstPageNumber="0" orientation="portrait" usePrinterDefaults="0" horizontalDpi="0" verticalDpi="0" copies="0"/>
 </worksheet>
 </file>